--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_74.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06340579710144928</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C', 'F:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_87</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08217799642218247</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'A:min7']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min'], ['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(35.161383, 41.268231)]</t>
+          <t>[['F:min', 'F:min', 'G:hdim7', 'C:7', 'F:min'], ['F:min', 'G:hdim7', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(29.993606, 33.940998)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:17.760000', '0:00:26.120000'), ('0:00:13.080000', '0:00:21.140000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:51.290000', '0:00:58.230000'), ('0:00:52.680000', '0:00:59.630000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1468531468531468</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09743589743589744</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj'], ['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>jaah_87</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07964046822742475</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min', 'Bb:7', 'Eb'], ['F:min', 'Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(22.46, 28.94), (6.64, 13.6)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.26, 12.34), (7.12, 14.12)]</t>
+          <t>[('0:00:55.460000', '0:00:59.630000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'C#:min']]</t>
-        </is>
+          <t>isophonics_10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2225274725274725</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'C#:min/5']]</t>
+          <t>[['D', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(69.02184, 71.912724)]</t>
+          <t>[['F#', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.381376, 26.512986)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:34.416000', '0:00:41.151000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:59.041587', '0:01:06.994421')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_144</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06853146853146853</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min/A#', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(83.84, 93.92)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.536, 33.834)]</t>
+          <t>[('0:00:08.300000', '0:00:12.960000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:12.140000', '0:00:20.020000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07500000000000001</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F/A', 'C:7/G', 'F/A'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_33</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4107142857142857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(260.88, 262.8), (243.44, 246.98)]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(127.37, 130.25), (12.51, 13.91)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:03.117845', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:02.252358', '0:00:05.805011')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'A', 'G:maj/9']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E', 'D']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(48.617346, 63.687097)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(51.090272, 54.596485)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1106719367588933</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.25, 51.08)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2095238095238095</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.525</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5', 'D']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.391, 26.25)]</t>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_117</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1308485329103886</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.656213, 4.461483)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.110561, 6.213665)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.829138, 17.282018)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(55.58, 66.2)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1430860805860806</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.6, 8.74)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(42.52, 48.86)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1205479452054795</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'E/5']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Ab']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(59.907505, 63.843287)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(118.0, 121.03)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.3, 10.76), (86.28, 95.68)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.8, 9.52), (70.8, 78.3)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1863636363636363</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(17.942016, 24.304284)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(127.431, 132.656)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.26, 24.94), (65.06, 88.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.86, 25.02), (61.24, 84.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
